--- a/Output/ANOVATables.xlsx
+++ b/Output/ANOVATables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyssa\Desktop\Repositories\TidePoolMicrobes\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E90CD-8ED5-475B-AA62-0814DB2C4613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB74BC3-B58B-4B6D-B250-F138F9B1A6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{290D86D1-0E93-48F2-B513-B6F9EAF372BD}"/>
   </bookViews>
@@ -222,21 +222,19 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -375,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -390,33 +388,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,16 +427,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,55 +441,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,17 +487,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9B2BCB-A368-4853-A8F8-F68CC6A89FEB}">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N26" sqref="B25:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -882,103 +868,103 @@
     </row>
     <row r="2" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A2" s="6"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="28" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="7"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="34">
         <v>-0.57499999999999996</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="34">
         <v>0.28299999999999997</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="34">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="34">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="12">
+      <c r="H4" s="28"/>
+      <c r="I4" s="11">
         <v>0.80100000000000005</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="3">
         <v>8.82</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>0.40400000000000003</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="35">
         <v>1.09E-2</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="2">
         <v>14</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>16</v>
       </c>
       <c r="O4" s="1"/>
@@ -986,2354 +972,2321 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="61"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="3">
         <v>1.23</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="3">
         <v>0.41499999999999998</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="3">
         <v>2.97</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="36">
         <v>1.09E-2</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="10"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A6" s="61"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="36"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A7" s="61"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="3">
         <v>-5.8508320079738597E-3</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="3">
         <v>0.39339064476595498</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="3">
         <v>-1.4872829554588801E-2</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="3">
         <v>0.98837805268901702</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="13">
+      <c r="H7" s="28"/>
+      <c r="I7" s="3">
         <v>1.04081381415007</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="3">
         <v>4.4240211791971598E-4</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="3">
         <v>3.6865484045957999E-5</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="3">
         <v>0.98356474087151202</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="2">
         <v>12</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A8" s="61"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="3">
         <v>1.17016640159477E-2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="3">
         <v>0.55633838513871003</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="3">
         <v>2.1033357266962999E-2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="3">
         <v>0.98356474087151302</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="10"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A9" s="61"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="36"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A10" s="61"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="3">
         <v>0.410140811959054</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="3">
         <v>0.326936625835964</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="3">
         <v>1.25449637497891</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="3">
         <v>0.231748429868572</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="13">
+      <c r="H10" s="28"/>
+      <c r="I10" s="3">
         <v>0.92471642058743797</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="3">
         <v>3.3723453317897798</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="3">
         <v>0.20597814567481501</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="3">
         <v>8.9266078057772105E-2</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="2">
         <v>13</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A11" s="61"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="3">
         <v>-0.87887316848368802</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="3">
         <v>0.47858621550429797</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="3">
         <v>-1.8363946557833799</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="3">
         <v>8.9266078057772105E-2</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="61"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="36"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="61"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="3">
         <v>0.33474990707698699</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="3">
         <v>0.40360795714189102</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="3">
         <v>0.82939372515716503</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="3">
         <v>0.424514524191349</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="13">
+      <c r="H13" s="28"/>
+      <c r="I13" s="3">
         <v>0.98863355112473605</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="3">
         <v>1.27751733818443</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="3">
         <v>0.104053393124619</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="3">
         <v>0.28240409074297601</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="2">
         <v>11</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="61"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="3">
         <v>-0.62167839885726195</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="3">
         <v>0.55002493188780099</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="3">
         <v>-1.13027312548093</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="3">
         <v>0.28240409074297601</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="10"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="61"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="36"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="61"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="3">
         <v>-0.10507170752623</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="3">
         <v>0.42421017780805897</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="3">
         <v>-0.24768785150122299</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="3">
         <v>0.80893851377938597</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="13">
+      <c r="H16" s="28"/>
+      <c r="I16" s="3">
         <v>1.0390984793250599</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="3">
         <v>0.11393436187954099</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="3">
         <v>1.02514877423006E-2</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="3">
         <v>0.74206194608523801</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="2">
         <v>11</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="61"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="3">
         <v>0.195133171120141</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="3">
         <v>0.578101026073086</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="3">
         <v>0.33754164465965097</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="3">
         <v>0.74206194608523801</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="10"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="61"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="36"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="61"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="3">
         <v>-0.25364680118017702</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="3">
         <v>0.41346842878366002</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="3">
         <v>-0.61346110977893598</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="3">
         <v>0.55204547668517101</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="13">
+      <c r="H19" s="28"/>
+      <c r="I19" s="3">
         <v>1.0127866752702499</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="3">
         <v>0.69890699024937897</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="3">
         <v>5.9741221195441001E-2</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="3">
         <v>0.420940271930827</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="2">
         <v>11</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="61"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="3">
         <v>0.47105834504889998</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="3">
         <v>0.56346248966429102</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="3">
         <v>0.83600657308981596</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="3">
         <v>0.420940271930827</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="10"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="61"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="36"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="61"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="3">
         <v>0.31824557318340302</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="3">
         <v>0.343396037776867</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="3">
         <v>0.92675959584074696</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="3">
         <v>0.37093769004893201</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="13">
+      <c r="H22" s="28"/>
+      <c r="I22" s="3">
         <v>0.97127066777845805</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="3">
         <v>1.8404643181776501</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="3">
         <v>0.124016626347958</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="3">
         <v>0.197988644319879</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="2">
         <v>13</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="61"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="3">
         <v>-0.68195479967872097</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="3">
         <v>0.502680327475023</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="3">
         <v>-1.3566371357800999</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="3">
         <v>0.197988644319879</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="10"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="36"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="55">
         <v>-0.51</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="55">
         <v>0.311</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="55">
         <v>-1.64</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="55">
         <v>0.123</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="52">
+      <c r="H25" s="56"/>
+      <c r="I25" s="57">
         <v>0.88</v>
       </c>
-      <c r="J25" s="52">
+      <c r="J25" s="57">
         <v>5.39</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="57">
         <v>0.22600000000000001</v>
       </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="54"/>
+      <c r="L25" s="58">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M25" s="54">
+        <v>14</v>
+      </c>
+      <c r="N25" s="59">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="61"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="55">
         <v>1.02</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="55">
         <v>0.44</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="55">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="55">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="54"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="59"/>
     </row>
     <row r="27" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A27" s="61"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="56"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="37"/>
     </row>
     <row r="28" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A28" s="61"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="3">
         <v>-0.177443252897311</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="3">
         <v>0.35976458413825801</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="3">
         <v>-0.49322045782338397</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="3">
         <v>0.62950327121748095</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="13">
+      <c r="H28" s="28"/>
+      <c r="I28" s="3">
         <v>1.01756790829968</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="3">
         <v>0.48653284003101699</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="3">
         <v>3.3585181865364501E-2</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="3">
         <v>0.49689932324789499</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="2">
         <v>14</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A29" s="61"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="3">
         <v>0.354886505794623</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="3">
         <v>0.50878395414984201</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="3">
         <v>0.69751906069369696</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="3">
         <v>0.49689932324789499</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="10"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A30" s="61"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="36"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A31" s="61"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="3">
         <v>3.5024722568754503E-2</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="3">
         <v>0.36572301556720299</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="3">
         <v>9.5768439715051404E-2</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="3">
         <v>0.92506182815860205</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="13">
+      <c r="H31" s="28"/>
+      <c r="I31" s="3">
         <v>1.0344208973742499</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="3">
         <v>1.83431880909108E-2</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="3">
         <v>1.30851327041943E-3</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="3">
         <v>0.89419440710522402</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="2">
         <v>14</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A32" s="61"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="50"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="3">
         <v>-7.0049445137508895E-2</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="3">
         <v>0.51721044868712496</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="3">
         <v>-0.13543702629233501</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="3">
         <v>0.89419440710522502</v>
       </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="10"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="61"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="56"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="61"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="3">
         <v>-0.141099711873205</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="3">
         <v>0.36239986217702702</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="3">
         <v>-0.38934813889162001</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="3">
         <v>0.70332177433170695</v>
       </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="13">
+      <c r="H34" s="28"/>
+      <c r="I34" s="3">
         <v>1.0250216001857799</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="3">
         <v>0.32483994269650202</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="3">
         <v>2.4378524927389501E-2</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="3">
         <v>0.57843056438055096</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="2">
         <v>13</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="61"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="3">
         <v>0.30235652544258201</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="3">
         <v>0.53049907790264805</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="3">
         <v>0.56994731572006097</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="3">
         <v>0.57843056438055096</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="10"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="61"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="36"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="61"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="3">
         <v>0.21543423537244699</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="3">
         <v>0.35632158202675202</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="3">
         <v>0.60460619350380196</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="3">
         <v>0.55584686336156097</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="13">
+      <c r="H37" s="28"/>
+      <c r="I37" s="3">
         <v>1.0078296277369401</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="3">
         <v>0.78331853404962204</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="3">
         <v>5.6830909923074803E-2</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="3">
         <v>0.39220447604634201</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="2">
         <v>13</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="61"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="8" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="3">
         <v>-0.46164479008381598</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="3">
         <v>0.52160138683956603</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="3">
         <v>-0.88505284251824301</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="3">
         <v>0.39220447604634201</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="10"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="61"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="36"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="30"/>
     </row>
     <row r="40" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="61"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="3">
         <v>4.1455324910458703E-2</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="3">
         <v>0.36651344878175401</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="3">
         <v>0.113107240807264</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="3">
         <v>0.91167354437999903</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="13">
+      <c r="H40" s="28"/>
+      <c r="I40" s="3">
         <v>1.0366565801185801</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="3">
         <v>2.7414102692211999E-2</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="3">
         <v>2.1043395470591998E-3</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="3">
         <v>0.87104088358396203</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="2">
         <v>13</v>
       </c>
-      <c r="N40" s="10">
+      <c r="N40" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="61"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="8" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="3">
         <v>-8.8832839093840293E-2</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="3">
         <v>0.536520752104099</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="3">
         <v>-0.16557204683222401</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="3">
         <v>0.87104088358396103</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="10"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A42" s="61"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="36"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="30"/>
     </row>
     <row r="43" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A43" s="61"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="50"/>
+      <c r="B43" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="3">
         <v>0.59778050287541495</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="3">
         <v>0.28788848793090799</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="3">
         <v>2.0764307290358799</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="3">
         <v>5.67506293635308E-2</v>
       </c>
-      <c r="H43" s="34"/>
-      <c r="I43" s="13">
+      <c r="H43" s="28"/>
+      <c r="I43" s="3">
         <v>0.81427160816594801</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="3">
         <v>8.6231291449690008</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="3">
         <v>0.38116429825918402</v>
       </c>
-      <c r="L43" s="48">
+      <c r="L43" s="36">
         <v>1.08310714348456E-2</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="2">
         <v>14</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A44" s="61"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="8" t="s">
+      <c r="A44" s="50"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="3">
         <v>-1.1955610057508299</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="3">
         <v>0.40713580408297401</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="3">
         <v>-2.9365164983307999</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="36">
         <v>1.08310714348456E-2</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="10"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A45" s="7"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="38"/>
-    </row>
-    <row r="46" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A46" s="58"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="32"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="B46" s="5"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="48" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="8"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A49" s="6"/>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="28" t="s">
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="40"/>
-    </row>
-    <row r="50" spans="1:14" s="43" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A50" s="57"/>
-      <c r="B50" s="32" t="s">
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="48"/>
+    </row>
+    <row r="50" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A50" s="7"/>
+      <c r="B50" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="33" t="s">
+      <c r="H50" s="28"/>
+      <c r="I50" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J50" s="33" t="s">
+      <c r="J50" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="K50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="33" t="s">
+      <c r="L50" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M50" s="33" t="s">
+      <c r="M50" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N50" s="35" t="s">
+      <c r="N50" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="3">
         <v>-0.81599999999999995</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="3">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="3">
         <v>-9.16</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="46">
+      <c r="H51" s="33"/>
+      <c r="I51" s="34">
         <v>0.252</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="3">
         <v>9.61</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51" s="34">
         <v>0.42499999999999999</v>
       </c>
-      <c r="L51" s="65">
+      <c r="L51" s="41">
         <v>8.4499999999999992E-3</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="3">
         <v>14</v>
       </c>
-      <c r="N51" s="64">
+      <c r="N51" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A52" s="61"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="8" t="s">
+      <c r="A52" s="50"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="3">
         <v>0.40400000000000003</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="3">
         <v>0.13</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="3">
         <v>3.1</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="12">
         <v>8.4499999999999992E-3</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="64"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="40"/>
     </row>
     <row r="53" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A53" s="61"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="36"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="30"/>
     </row>
     <row r="54" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A54" s="61"/>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="50"/>
+      <c r="B54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="3">
         <v>0.87047896663587998</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="3">
         <v>0.181963007290977</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="3">
         <v>4.7838238090003404</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="13">
+      <c r="H54" s="28"/>
+      <c r="I54" s="3">
         <v>0.38938025009104998</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="3">
         <v>0.48142886510535898</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="3">
         <v>7.6521648731298599</v>
       </c>
-      <c r="L54" s="48">
+      <c r="L54" s="36">
         <v>1.70800467791603E-2</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="2">
         <v>12</v>
       </c>
-      <c r="N54" s="10">
+      <c r="N54" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A55" s="61"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="8" t="s">
+      <c r="A55" s="50"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="3">
         <v>-0.71185290711063198</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="3">
         <v>0.25733455276109402</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="3">
         <v>-2.7662546652703299</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="12">
         <v>1.70800467791603E-2</v>
       </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="10"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="N55" s="9"/>
     </row>
     <row r="56" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A56" s="61"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="36"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="30"/>
     </row>
     <row r="57" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A57" s="61"/>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="50"/>
+      <c r="B57" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="3">
         <v>0.68096068852497504</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="3">
         <v>0.23807078676858801</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="3">
         <v>2.8603286348899601</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="12">
         <v>1.33891725927249E-2</v>
       </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="13">
+      <c r="H57" s="28"/>
+      <c r="I57" s="3">
         <v>6.2225265073059199E-2</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="3">
         <v>0.67336587090594102</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="3">
         <v>0.86260422233788403</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="3">
         <v>0.369935678754789</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="2">
         <v>13</v>
       </c>
-      <c r="N57" s="10">
+      <c r="N57" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A58" s="61"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="8" t="s">
+      <c r="A58" s="50"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="3">
         <v>-0.32367451545378201</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="3">
         <v>0.34849994726156902</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="3">
         <v>-0.928764890775854</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="15">
         <v>0.369935678754789</v>
       </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="10"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="N58" s="9"/>
     </row>
     <row r="59" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A59" s="61"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="36"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="30"/>
     </row>
     <row r="60" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A60" s="61"/>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="50"/>
+      <c r="B60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="3">
         <v>-0.666445670146673</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="3">
         <v>0.41494661666041799</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="3">
         <v>-1.60609978100406</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="15">
         <v>0.134230135123104</v>
       </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="13">
+      <c r="H60" s="28"/>
+      <c r="I60" s="3">
         <v>0.24302755280878399</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="3">
         <v>1.0978455550511099</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="3">
         <v>3.8526245499774801</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="3">
         <v>7.3272121890518599E-2</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="2">
         <v>12</v>
       </c>
-      <c r="N60" s="10">
+      <c r="N60" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A61" s="61"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="8" t="s">
+      <c r="A61" s="50"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="3">
         <v>1.1518225309034</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="3">
         <v>0.58682313294199295</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="3">
         <v>1.9628103703561</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="15">
         <v>7.3272121890518599E-2</v>
       </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="10"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="N61" s="9"/>
     </row>
     <row r="62" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A62" s="61"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="36"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="30"/>
     </row>
     <row r="63" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A63" s="61"/>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="50"/>
+      <c r="B63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="3">
         <v>-0.484569107344824</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="3">
         <v>0.50690007400466297</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="3">
         <v>-0.95594601815024904</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="15">
         <v>0.35796197594346502</v>
       </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="13">
+      <c r="H63" s="28"/>
+      <c r="I63" s="3">
         <v>0.10438834452682499</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="3">
         <v>1.34113153537657</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="3">
         <v>1.3986643950720901</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="3">
         <v>0.25985033224120602</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="2">
         <v>12</v>
       </c>
-      <c r="N63" s="10">
+      <c r="N63" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A64" s="61"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="8" t="s">
+      <c r="A64" s="50"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="3">
         <v>0.84780136640839499</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="3">
         <v>0.71686495942532003</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="3">
         <v>1.1826514258529801</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="15">
         <v>0.25985033224120602</v>
       </c>
-      <c r="H64" s="34"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="10"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="N64" s="9"/>
     </row>
     <row r="65" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A65" s="61"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="36"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="30"/>
     </row>
     <row r="66" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A66" s="61"/>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="50"/>
+      <c r="B66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="3">
         <v>0.52586461054181</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="3">
         <v>0.27422166042093299</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="3">
         <v>1.9176625571247701</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="15">
         <v>7.9261359519547797E-2</v>
       </c>
-      <c r="H66" s="34"/>
-      <c r="I66" s="13">
+      <c r="H66" s="28"/>
+      <c r="I66" s="3">
         <v>0.156935666215091</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="3">
         <v>0.72552231758099395</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K66" s="3">
         <v>2.2337891891671</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="3">
         <v>0.160847008874442</v>
       </c>
-      <c r="M66" s="8">
+      <c r="M66" s="2">
         <v>12</v>
       </c>
-      <c r="N66" s="10">
+      <c r="N66" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A67" s="61"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="8" t="s">
+      <c r="A67" s="50"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="3">
         <v>-0.57961263804838703</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="3">
         <v>0.38780799126375298</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="3">
         <v>-1.4945866281909199</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="15">
         <v>0.16084700887444101</v>
       </c>
-      <c r="H67" s="34"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="10"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="N67" s="9"/>
     </row>
     <row r="68" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A68" s="61"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="36"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="30"/>
     </row>
     <row r="69" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A69" s="61"/>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="50"/>
+      <c r="B69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="3">
         <v>-0.99583233847686203</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="3">
         <v>0.15247671962957501</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="3">
         <v>-6.5310451385373502</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H69" s="34"/>
-      <c r="I69" s="13">
+      <c r="H69" s="28"/>
+      <c r="I69" s="3">
         <v>0.231068588955014</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="3">
         <v>0.43126928969261102</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K69" s="3">
         <v>3.9065794598413799</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L69" s="3">
         <v>6.9707240204165799E-2</v>
       </c>
-      <c r="M69" s="8">
+      <c r="M69" s="2">
         <v>13</v>
       </c>
-      <c r="N69" s="10">
+      <c r="N69" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A70" s="61"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="8" t="s">
+      <c r="A70" s="50"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="3">
         <v>0.44116238983438599</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="3">
         <v>0.223203062714183</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="3">
         <v>1.9765068833276001</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="15">
         <v>6.9707240204165702E-2</v>
       </c>
-      <c r="H70" s="34"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="10"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="N70" s="9"/>
     </row>
     <row r="71" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="36"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="30"/>
     </row>
     <row r="72" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A72" s="60" t="s">
+      <c r="A72" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="46">
+      <c r="D72" s="34">
         <v>-0.78</v>
       </c>
-      <c r="E72" s="46">
+      <c r="E72" s="34">
         <v>0.123</v>
       </c>
-      <c r="F72" s="46">
+      <c r="F72" s="34">
         <v>-6.37</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="44"/>
-      <c r="I72" s="46">
+      <c r="H72" s="33"/>
+      <c r="I72" s="34">
         <v>0.34699999999999998</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="3">
         <v>5.0599999999999996</v>
       </c>
-      <c r="K72" s="46">
+      <c r="K72" s="34">
         <v>0.26500000000000001</v>
       </c>
-      <c r="L72" s="65">
+      <c r="L72" s="41">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M72" s="3">
         <v>14</v>
       </c>
-      <c r="N72" s="64">
+      <c r="N72" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A73" s="61"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="8" t="s">
+      <c r="A73" s="50"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="66">
+      <c r="D73" s="42">
         <v>0.39</v>
       </c>
-      <c r="E73" s="66">
+      <c r="E73" s="42">
         <v>0.17299999999999999</v>
       </c>
-      <c r="F73" s="66">
+      <c r="F73" s="42">
         <v>2.25</v>
       </c>
-      <c r="G73" s="67">
+      <c r="G73" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H73" s="44"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="68"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="44"/>
     </row>
     <row r="74" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A74" s="61"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="36"/>
+      <c r="A74" s="50"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="30"/>
     </row>
     <row r="75" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A75" s="61"/>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="50"/>
+      <c r="B75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="3">
         <v>0.21225786479532699</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="3">
         <v>0.27973890550673403</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="3">
         <v>0.75877134219436504</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="15">
         <v>0.46057384311850602</v>
       </c>
-      <c r="H75" s="34"/>
-      <c r="I75" s="13">
+      <c r="H75" s="28"/>
+      <c r="I75" s="3">
         <v>1.86531640246158E-3</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="3">
         <v>0.79122110818205804</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K75" s="3">
         <v>2.6163232340888999E-2</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="3">
         <v>0.87381348410262305</v>
       </c>
-      <c r="M75" s="8">
+      <c r="M75" s="2">
         <v>14</v>
       </c>
-      <c r="N75" s="10">
+      <c r="N75" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A76" s="61"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="8" t="s">
+      <c r="A76" s="50"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="3">
         <v>-6.3990214823572297E-2</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="3">
         <v>0.39561055409102902</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="3">
         <v>-0.161750525009624</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="15">
         <v>0.87381348410262305</v>
       </c>
-      <c r="H76" s="34"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="10"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="N76" s="9"/>
     </row>
     <row r="77" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A77" s="61"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="36"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="30"/>
     </row>
     <row r="78" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A78" s="61"/>
-      <c r="B78" s="11" t="s">
+      <c r="A78" s="50"/>
+      <c r="B78" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="3">
         <v>0.600683293185023</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="3">
         <v>0.30925699869078199</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="3">
         <v>1.9423434092937999</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="15">
         <v>7.2488658000132503E-2</v>
       </c>
-      <c r="H78" s="34"/>
-      <c r="I78" s="13">
+      <c r="H78" s="28"/>
+      <c r="I78" s="3">
         <v>4.00106451412117E-2</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="3">
         <v>0.87471088361460603</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K78" s="3">
         <v>0.58349504517095496</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L78" s="3">
         <v>0.45762682059665999</v>
       </c>
-      <c r="M78" s="8">
+      <c r="M78" s="2">
         <v>14</v>
       </c>
-      <c r="N78" s="10">
+      <c r="N78" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A79" s="61"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="8" t="s">
+      <c r="A79" s="50"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="3">
         <v>-0.334082033814391</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="3">
         <v>0.43735544180730301</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="3">
         <v>-0.76386847373808697</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="15">
         <v>0.45762682059665999</v>
       </c>
-      <c r="H79" s="34"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="10"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="N79" s="9"/>
     </row>
     <row r="80" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A80" s="61"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="36"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="30"/>
     </row>
     <row r="81" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A81" s="61"/>
-      <c r="B81" s="11" t="s">
+      <c r="A81" s="50"/>
+      <c r="B81" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="3">
         <v>0.27065375141238801</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="3">
         <v>0.24022914421473199</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="3">
         <v>1.1266482769903201</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="15">
         <v>0.27883280258184201</v>
       </c>
-      <c r="H81" s="34"/>
-      <c r="I81" s="13">
+      <c r="H81" s="28"/>
+      <c r="I81" s="3">
         <v>0.26812760782182199</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="3">
         <v>0.679470627651514</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K81" s="3">
         <v>5.1290177763552398</v>
       </c>
-      <c r="L81" s="48">
+      <c r="L81" s="36">
         <v>3.9928128522807298E-2</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M81" s="2">
         <v>14</v>
       </c>
-      <c r="N81" s="10">
+      <c r="N81" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A82" s="61"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="8" t="s">
+      <c r="A82" s="50"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="3">
         <v>-0.76940994262890305</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="3">
         <v>0.339735313825757</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="3">
         <v>-2.2647334890346902</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="12">
         <v>3.9928128522807298E-2</v>
       </c>
-      <c r="H82" s="34"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="10"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="N82" s="9"/>
     </row>
     <row r="83" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A83" s="61"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="36"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="30"/>
     </row>
     <row r="84" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A84" s="61"/>
-      <c r="B84" s="11" t="s">
+      <c r="A84" s="50"/>
+      <c r="B84" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="3">
         <v>0.130951241178031</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="3">
         <v>0.33251813128821101</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="3">
         <v>0.39381684442502901</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="15">
         <v>0.69964909799820396</v>
       </c>
-      <c r="H84" s="34"/>
-      <c r="I84" s="13">
+      <c r="H84" s="28"/>
+      <c r="I84" s="3">
         <v>6.4010687934944804E-3</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="3">
         <v>0.94050330200549204</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K84" s="3">
         <v>9.01922901628983E-2</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L84" s="3">
         <v>0.76834612266108704</v>
       </c>
-      <c r="M84" s="8">
+      <c r="M84" s="2">
         <v>14</v>
       </c>
-      <c r="N84" s="10">
+      <c r="N84" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A85" s="61"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="8" t="s">
+      <c r="A85" s="50"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="3">
         <v>-0.14122612283195299</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="3">
         <v>0.47025165100274602</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="3">
         <v>-0.30032031260455599</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G85" s="15">
         <v>0.76834612266108704</v>
       </c>
-      <c r="H85" s="34"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="10"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="N85" s="9"/>
     </row>
     <row r="86" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A86" s="61"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="36"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="30"/>
     </row>
     <row r="87" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A87" s="61"/>
-      <c r="B87" s="11" t="s">
+      <c r="A87" s="50"/>
+      <c r="B87" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="3">
         <v>-0.31146817582463299</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="3">
         <v>0.43154371304601502</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="3">
         <v>-0.721753478057093</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="15">
         <v>0.48232747038857399</v>
       </c>
-      <c r="H87" s="34"/>
-      <c r="I87" s="13">
+      <c r="H87" s="28"/>
+      <c r="I87" s="3">
         <v>1.15541088568249E-2</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="3">
         <v>1.2205899434930301</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K87" s="3">
         <v>0.163648334668548</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="3">
         <v>0.69193233029463297</v>
       </c>
-      <c r="M87" s="8">
+      <c r="M87" s="2">
         <v>14</v>
       </c>
-      <c r="N87" s="10">
+      <c r="N87" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A88" s="61"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="8" t="s">
+      <c r="A88" s="50"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="3">
         <v>0.24688550172852899</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="3">
         <v>0.61029497174651703</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="3">
         <v>0.40453471379913603</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="15">
         <v>0.69193233029463297</v>
       </c>
-      <c r="H88" s="34"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="10"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="N88" s="9"/>
     </row>
     <row r="89" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A89" s="61"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="36"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="30"/>
     </row>
     <row r="90" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A90" s="61"/>
-      <c r="B90" s="11" t="s">
+      <c r="A90" s="50"/>
+      <c r="B90" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="3">
         <v>-0.45441666386717799</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="3">
         <v>0.14152688403130101</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="3">
         <v>-3.2108151534423199</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="12">
         <v>6.2839109560811597E-3</v>
       </c>
-      <c r="H90" s="34"/>
-      <c r="I90" s="13">
+      <c r="H90" s="28"/>
+      <c r="I90" s="3">
         <v>1.7257917395744199E-2</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="3">
         <v>0.40029847767494198</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K90" s="3">
         <v>0.24585376755226901</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L90" s="3">
         <v>0.62770266972296596</v>
       </c>
-      <c r="M90" s="8">
+      <c r="M90" s="2">
         <v>14</v>
       </c>
-      <c r="N90" s="10">
+      <c r="N90" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A91" s="61"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="8" t="s">
+      <c r="A91" s="50"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="3">
         <v>-9.9241284503907803E-2</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="3">
         <v>0.20014923883747099</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="3">
         <v>-0.49583643225590901</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="15">
         <v>0.62770266972296596</v>
       </c>
-      <c r="H91" s="34"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="10"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="N91" s="9"/>
     </row>
     <row r="92" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A92" s="62"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="38"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="32"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.75">
       <c r="B93" s="5"/>
@@ -3394,965 +3347,944 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="28" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="31"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.84899999999999998</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="3">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="3">
         <v>3.23</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16">
+      <c r="H4" s="13"/>
+      <c r="I4" s="4">
         <v>0.77</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="3">
         <v>13.3</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="4">
         <v>0.45</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="2">
         <v>43</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B5" s="11"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="3">
         <v>0.16900000000000001</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="3">
         <v>0.372</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="3">
         <v>0.45500000000000002</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>0.625</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="10"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B6" s="11"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="3">
         <v>-1.51</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="3">
         <v>0.32600000000000001</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="3">
         <v>-4.63</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="15"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B7" s="11"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="3">
         <v>0.45800000000000002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="3">
         <v>0.379</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <v>0.70699999999999996</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B8" s="19"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="3">
         <v>0.48281871902003698</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="3">
         <v>0.299846484814563</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="3">
         <v>1.61021970732333</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <v>0.11484122500173501</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="13">
+      <c r="H9" s="13"/>
+      <c r="I9" s="3">
         <v>0.79331923031623897</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="3">
         <v>9.8339100159438804</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="3">
         <v>0.41260162555641899</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="2">
         <v>42</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B10" s="11"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="3">
         <v>-1.0027224996121999</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="3">
         <v>0.41058170880391598</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="3">
         <v>-2.4421996355689499</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>1.8888127408147999E-2</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B11" s="11"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="3">
         <v>0.25481472588681198</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="3">
         <v>0.36313212636948</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="3">
         <v>0.70171352899672501</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <v>0.48672827946583902</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="15"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B12" s="11"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="3">
         <v>-0.37772359917000198</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="3">
         <v>0.49986906177984303</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="3">
         <v>-0.75564508398473895</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <v>0.45407926140175597</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B13" s="19"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="21"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="3">
         <v>8.7729255536722506E-2</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="3">
         <v>0.28897061116302403</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="3">
         <v>0.30359231059392899</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <v>0.76290266286191399</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="13">
+      <c r="H14" s="13"/>
+      <c r="I14" s="3">
         <v>0.81733231486798297</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="3">
         <v>8.6196550584065097</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="3">
         <v>0.37553519878520403</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="2">
         <v>43</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B15" s="11"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="3">
         <v>-0.96394454875825897</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="3">
         <v>0.40866615743399098</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="3">
         <v>-2.3587579524833902</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>2.2950498257469601E-2</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="15"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B16" s="11"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="3">
         <v>0.69607323774762497</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="3">
         <v>0.35782605873677698</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="3">
         <v>1.94528380690034</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <v>5.8297789890825499E-2</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="15"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B17" s="11"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="3">
         <v>-0.160429763137757</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="3">
         <v>0.50328472009886505</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="3">
         <v>-0.31876541593840202</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="15">
         <v>0.75144768353725799</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="15"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B18" s="19"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="3">
         <v>0.30930141589860199</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="3">
         <v>0.362339114839689</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="3">
         <v>0.85362414167028899</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="15">
         <v>0.3983964808296</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="13">
+      <c r="H19" s="13"/>
+      <c r="I19" s="3">
         <v>1.0248497807690999</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="3">
         <v>0.31333937136613399</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="3">
         <v>2.2960862193040599E-2</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="15">
         <v>0.81561701924416197</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="2">
         <v>40</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B20" s="11"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="3">
         <v>-0.30742738775697198</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="3">
         <v>0.51242489038455197</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="3">
         <v>-0.59994624290451903</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="15">
         <v>0.55192586729735504</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="10"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="15"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B21" s="11"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="3">
         <v>-0.39313784806066199</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="3">
         <v>0.46052497777402901</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="3">
         <v>-0.85367323605532597</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="15">
         <v>0.39836959503386599</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="10"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="15"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B22" s="11"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="3">
         <v>0.29796182430469298</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="3">
         <v>0.64295725169413798</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="3">
         <v>0.46342400450354798</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="15">
         <v>0.64557230507315699</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="10"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="15"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B23" s="19"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="3">
         <v>-0.97278038901875297</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="3">
         <v>0.31106843132098899</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="3">
         <v>-3.1272231157874901</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="13">
+      <c r="H24" s="13"/>
+      <c r="I24" s="3">
         <v>0.879834388800534</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="3">
         <v>5.1825883698435797</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="3">
         <v>0.27989902165952402</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="2">
         <v>40</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B25" s="11"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="3">
         <v>1.5469138257719599</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="3">
         <v>0.439917194400267</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="3">
         <v>3.5163750029840202</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="10"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="15"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B26" s="11"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="3">
         <v>0.84097746586800404</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="3">
         <v>0.39536107627707001</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="3">
         <v>2.12711244563347</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>3.9628069019869303E-2</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="10"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="15"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B27" s="11"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="3">
         <v>-1.08826999468227</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="3">
         <v>0.55197933510280295</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="3">
         <v>-1.9715774223315501</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="15">
         <v>5.56021410478134E-2</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="10"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="15"/>
+      <c r="N27" s="9"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B28" s="19"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="3">
         <v>1.8299039135821399E-2</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="3">
         <v>0.35360513499934698</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="3">
         <v>5.1749924773731602E-2</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="15">
         <v>0.95898553258298103</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="13">
+      <c r="H29" s="13"/>
+      <c r="I29" s="3">
         <v>1.00014635528169</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="3">
         <v>0.99580540279943097</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="3">
         <v>6.9495133038832202E-2</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="15">
         <v>0.40467187039212699</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="2">
         <v>40</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B30" s="11"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="3">
         <v>0.29709766714439201</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="3">
         <v>0.50007317764084602</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="3">
         <v>0.59410838338897798</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="15">
         <v>0.55578504989938304</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="10"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="15"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B31" s="11"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="3">
         <v>0.16876147748137199</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="3">
         <v>0.44942428312881499</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="3">
         <v>0.37550591682871198</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="15">
         <v>0.70926825911930103</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="10"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="15"/>
+      <c r="N31" s="9"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.75">
-      <c r="B32" s="11"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="3">
         <v>-0.82424836238503996</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="3">
         <v>0.627459130060256</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="3">
         <v>-1.3136287654398799</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="15">
         <v>0.19645615342588699</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="10"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="15"/>
+      <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B33" s="19"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="3">
         <v>0.67431955197008497</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="3">
         <v>0.26869527062471699</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="3">
         <v>2.5096070742231098</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>1.59322651494694E-2</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="13">
+      <c r="H34" s="13"/>
+      <c r="I34" s="3">
         <v>0.75998499172596801</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="3">
         <v>12.214344901249101</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="3">
         <v>0.46009088980662999</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="2">
         <v>43</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B35" s="11"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="3">
         <v>0.43376052871668602</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="3">
         <v>0.379992495862984</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="3">
         <v>1.14149761755581</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="15">
         <v>0.25998010990368497</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="10"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="15"/>
+      <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B36" s="11"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="3">
         <v>-1.3327767608606</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="3">
         <v>0.33271954300782802</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="3">
         <v>-4.0057062738549298</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="10"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="15"/>
+      <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="B37" s="11"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="3">
         <v>-4.9199502819736798E-2</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="3">
         <v>0.46797223954362199</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="3">
         <v>-0.105133378996406</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="15">
         <v>0.91675886878837098</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="10"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="15"/>
+      <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="26"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="23"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.75">
       <c r="H39" s="3"/>
@@ -4372,965 +4304,941 @@
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B41" s="27"/>
-      <c r="C41" s="28" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="28" t="s">
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="31"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="52"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="33" t="s">
+      <c r="H42" s="28"/>
+      <c r="I42" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="33" t="s">
+      <c r="K42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="33" t="s">
+      <c r="L42" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M42" s="33" t="s">
+      <c r="M42" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="35" t="s">
+      <c r="N42" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="3">
         <v>-0.90600000000000003</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="3">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="3">
         <v>-6.93</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="34"/>
-      <c r="I43" s="16">
+      <c r="H43" s="28"/>
+      <c r="I43" s="4">
         <v>0.37</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="3">
         <v>21.4</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="2">
         <v>43</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B44" s="11"/>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="3">
         <v>0.51300000000000001</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="3">
         <v>0.185</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="3">
         <v>2.77</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="15">
         <v>8.1700000000000002E-3</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="10"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="15"/>
+      <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B45" s="11"/>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="3">
         <v>0.34499999999999997</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="3">
         <v>2.13</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="15">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="10"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="15"/>
+      <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B46" s="11"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="3">
         <v>0.29399999999999998</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="3">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="3">
         <v>1.29</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="10"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="15"/>
+      <c r="N46" s="9"/>
     </row>
     <row r="47" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B47" s="19"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="36"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="30"/>
     </row>
     <row r="48" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="3">
         <v>-7.2281505841663505E-4</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="3">
         <v>0.12722034548941</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="3">
         <v>-5.6815995557629E-3</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="15">
         <v>0.99549366526727201</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="13">
+      <c r="H48" s="28"/>
+      <c r="I48" s="3">
         <v>0.33659339587269599</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="3">
         <v>22.2858637269028</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="3">
         <v>0.61417481735124801</v>
       </c>
-      <c r="L48" s="14" t="s">
+      <c r="L48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="2">
         <v>42</v>
       </c>
-      <c r="N48" s="10">
+      <c r="N48" s="9">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B49" s="11"/>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="3">
         <v>-0.90191526075253003</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="3">
         <v>0.17420363249537599</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="3">
         <v>-5.1773619633130696</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="10"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="15"/>
+      <c r="N49" s="9"/>
     </row>
     <row r="50" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B50" s="11"/>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="3">
         <v>-4.5069575683121803E-2</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="3">
         <v>0.15407148962776701</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="3">
         <v>-0.29252378744444402</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="15">
         <v>0.77132646697753404</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="10"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="15"/>
+      <c r="N50" s="9"/>
     </row>
     <row r="51" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B51" s="11"/>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="3">
         <v>0.137801275145325</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="3">
         <v>0.2120869110019</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="3">
         <v>0.64973964915774796</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="15">
         <v>0.51939842575779804</v>
       </c>
-      <c r="H51" s="34"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="10"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="15"/>
+      <c r="N51" s="9"/>
     </row>
     <row r="52" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B52" s="19"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="36"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="30"/>
     </row>
     <row r="53" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="3">
         <v>0.96767525916366204</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="3">
         <v>0.16507528446591899</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="3">
         <v>5.8620238777383102</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="34"/>
-      <c r="I53" s="13">
+      <c r="H53" s="28"/>
+      <c r="I53" s="3">
         <v>0.46690341220859899</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="3">
         <v>27.281916858708801</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="3">
         <v>0.65557498111415402</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="12">
         <v>4.8637086161855604E-10</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="2">
         <v>43</v>
       </c>
-      <c r="N53" s="10">
+      <c r="N53" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B54" s="11"/>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="3">
         <v>-0.88319669180348603</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="3">
         <v>0.23345170610429899</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="3">
         <v>-3.7832094120952702</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="10"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="15"/>
+      <c r="N54" s="9"/>
     </row>
     <row r="55" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B55" s="11"/>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="3">
         <v>-1.3145807500017199</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="3">
         <v>0.20440915495717399</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="3">
         <v>-6.4311246249079899</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="10"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="15"/>
+      <c r="N55" s="9"/>
     </row>
     <row r="56" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B56" s="11"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="3">
         <v>0.41946143842922901</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="3">
         <v>0.28750282945140199</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="3">
         <v>1.4589819489068001</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="15">
         <v>0.15183687742729601</v>
       </c>
-      <c r="H56" s="34"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="10"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="15"/>
+      <c r="N56" s="9"/>
     </row>
     <row r="57" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B57" s="19"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="36"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="30"/>
     </row>
     <row r="58" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="3">
         <v>-0.501201046397168</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="3">
         <v>0.37086729493628701</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="3">
         <v>-1.3514296171175499</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="15">
         <v>0.18379248559262401</v>
       </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="13">
+      <c r="H58" s="28"/>
+      <c r="I58" s="3">
         <v>1.0489711166790401</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="3">
         <v>1.7651969385205499</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58" s="3">
         <v>0.111967959893193</v>
       </c>
-      <c r="L58" s="18">
+      <c r="L58" s="15">
         <v>0.16848855401749399</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="2">
         <v>42</v>
       </c>
-      <c r="N58" s="10">
+      <c r="N58" s="9">
         <v>46</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B59" s="11"/>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="3">
         <v>0.88741785415463503</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="3">
         <v>0.52448555833952004</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="3">
         <v>1.6919776723007001</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="15">
         <v>9.8057829159343898E-2</v>
       </c>
-      <c r="H59" s="34"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="10"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="15"/>
+      <c r="N59" s="9"/>
     </row>
     <row r="60" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B60" s="11"/>
-      <c r="C60" s="8" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="3">
         <v>1.0089076673144299</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="3">
         <v>0.46490675793062403</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="3">
         <v>2.1701290637401001</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="12">
         <v>3.57018335407931E-2</v>
       </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="10"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="15"/>
+      <c r="N60" s="9"/>
     </row>
     <row r="61" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B61" s="11"/>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="3">
         <v>-1.35604968272319</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="3">
         <v>0.64996316760998296</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="3">
         <v>-2.0863485045000298</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="12">
         <v>4.3057373051891397E-2</v>
       </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="10"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="15"/>
+      <c r="N61" s="9"/>
     </row>
     <row r="62" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B62" s="19"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="36"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="30"/>
     </row>
     <row r="63" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="3">
         <v>0.64895030124105602</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="3">
         <v>0.403775016541636</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="3">
         <v>1.6072076643061399</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="15">
         <v>0.11550176327214</v>
       </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="13">
+      <c r="H63" s="28"/>
+      <c r="I63" s="3">
         <v>1.1420482090812001</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="3">
         <v>1.16557809412055</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="3">
         <v>7.6856819231469406E-2</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L63" s="15">
         <v>0.33421982957097401</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="2">
         <v>42</v>
       </c>
-      <c r="N63" s="10">
+      <c r="N63" s="9">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B64" s="11"/>
-      <c r="C64" s="8" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="3">
         <v>-0.77590046123657497</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="3">
         <v>0.57102410454060304</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="3">
         <v>-1.3587875801859499</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="15">
         <v>0.18146685538979501</v>
       </c>
-      <c r="H64" s="34"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="10"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="15"/>
+      <c r="N64" s="9"/>
     </row>
     <row r="65" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B65" s="11"/>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="3">
         <v>-0.210261850378436</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="3">
         <v>0.50615877009593202</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="3">
         <v>-0.41540690945369901</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="15">
         <v>0.67995872123725898</v>
       </c>
-      <c r="H65" s="34"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="10"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="15"/>
+      <c r="N65" s="9"/>
     </row>
     <row r="66" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B66" s="11"/>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="3">
         <v>0.25253116132352799</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="3">
         <v>0.707635567590991</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="3">
         <v>0.35686612274623503</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="15">
         <v>0.72297882375950495</v>
       </c>
-      <c r="H66" s="34"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="10"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="15"/>
+      <c r="N66" s="9"/>
     </row>
     <row r="67" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B67" s="19"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="36"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="30"/>
     </row>
     <row r="68" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="3">
         <v>-0.70296010861621905</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="3">
         <v>0.35984078103290901</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="3">
         <v>-1.9535309661078299</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="15">
         <v>5.7439013229529802E-2</v>
       </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="13">
+      <c r="H68" s="28"/>
+      <c r="I68" s="3">
         <v>1.01778342566333</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="3">
         <v>3.1964728463636201</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K68" s="3">
         <v>0.18587956233359501</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="12">
         <v>3.2996505020015603E-2</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M68" s="2">
         <v>42</v>
       </c>
-      <c r="N68" s="10">
+      <c r="N68" s="9">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B69" s="11"/>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="3">
         <v>0.15808452619173</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="3">
         <v>0.50889171283166701</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="3">
         <v>0.31064472500856399</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="15">
         <v>0.75760717129948496</v>
       </c>
-      <c r="H69" s="34"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="10"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="15"/>
+      <c r="N69" s="9"/>
     </row>
     <row r="70" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B70" s="11"/>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="3">
         <v>0.39472508347678897</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="3">
         <v>0.45108429124216298</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="3">
         <v>0.87505836745017895</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="15">
         <v>0.38651899812295398</v>
       </c>
-      <c r="H70" s="34"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="10"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="15"/>
+      <c r="N70" s="9"/>
     </row>
     <row r="71" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B71" s="11"/>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="3">
         <v>0.60686426502521795</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="3">
         <v>0.63063865988932699</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="3">
         <v>0.962301082416544</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="15">
         <v>0.34140625942254899</v>
       </c>
-      <c r="H71" s="34"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="10"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="15"/>
+      <c r="N71" s="9"/>
     </row>
     <row r="72" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B72" s="19"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="36"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="30"/>
     </row>
     <row r="73" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="3">
         <v>-0.85769907460046702</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="3">
         <v>0.15891115024255201</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="3">
         <v>-5.3973498605436303</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="34"/>
-      <c r="I73" s="13">
+      <c r="H73" s="28"/>
+      <c r="I73" s="3">
         <v>0.44946860777065101</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="3">
         <v>35.083008410146597</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K73" s="3">
         <v>0.70994750263510797</v>
       </c>
-      <c r="L73" s="14" t="s">
+      <c r="L73" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M73" s="8">
+      <c r="M73" s="2">
         <v>43</v>
       </c>
-      <c r="N73" s="10">
+      <c r="N73" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="74" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B74" s="11"/>
-      <c r="C74" s="8" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="3">
         <v>0.53947797652509899</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="3">
         <v>0.224734303885325</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="3">
         <v>2.4005145952278699</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="12">
         <v>2.0771480488973801E-2</v>
       </c>
-      <c r="H74" s="34"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="10"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="15"/>
+      <c r="N74" s="9"/>
     </row>
     <row r="75" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B75" s="11"/>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="3">
         <v>0.62308153814929002</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="3">
         <v>0.196776240849422</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="3">
         <v>3.1664470032542398</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="34"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="10"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="15"/>
+      <c r="N75" s="9"/>
     </row>
     <row r="76" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B76" s="11"/>
-      <c r="C76" s="8" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="3">
         <v>0.624591664574075</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="3">
         <v>0.27676708523584598</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="3">
         <v>2.25674112961023</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="12">
         <v>2.91616111633008E-2</v>
       </c>
-      <c r="H76" s="34"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="10"/>
+      <c r="H76" s="28"/>
+      <c r="L76" s="31"/>
+      <c r="N76" s="9"/>
     </row>
     <row r="77" spans="2:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="38"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="32"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.75">
       <c r="D79" s="4"/>
